--- a/tweets_supreme_treinamento.xlsx
+++ b/tweets_supreme_treinamento.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Área de Trabalho\Ciencia dos dados\CD18-master\aula01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Projeto 2 de C.D\Projeto-2-ciencia-dos-dados-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B30D989D-5FD6-4BA6-8BE8-86F58FD0B638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22C406D7-704A-4367-B53B-3E78E0516945}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -946,7 +945,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,9 +1024,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1065,7 +1064,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1100,23 +1099,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1152,26 +1134,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1344,17 +1309,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="154.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1385,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1461,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1499,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1521,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1599,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1672,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1858,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2107,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2145,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2227,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2313,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2370,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2411,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="375" x14ac:dyDescent="0.25">
@@ -2492,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2522,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2576,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2663,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,9 +2644,6 @@
         <v>130</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
         <v>0</v>
       </c>
     </row>
@@ -2693,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2720,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2969,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2991,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -3284,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3303,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3322,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3392,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3527,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3565,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3832,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3953,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4063,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">

--- a/tweets_supreme_treinamento.xlsx
+++ b/tweets_supreme_treinamento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="521">
   <si>
     <t>Treinamento</t>
   </si>
@@ -941,12 +941,880 @@
   <si>
     <t>Positividade</t>
   </si>
+  <si>
+    <t>rt @anarcobs: o cara roubou o vídeo do shutterstock e colocou a faixa preta com a legenda em cima pra esconder hahahahahahahahahahahahahaha…</t>
+  </si>
+  <si>
+    <t>eu preparei pra você
+satifção e prazer
+um bart supreme e o lazer
+fim de tarde só nós dois
+bart supreme depois
+bart supreme depois</t>
+  </si>
+  <si>
+    <t>rt @beynationbr: não iremos noticiar sobre um dos dançarinos da beyoncé ter comentado que em breve virá ao brasil. 
+cansamos de ser alice,…</t>
+  </si>
+  <si>
+    <t>rt @rehabfierce: gente vcs tem noção que um fascista pode ganhar as eleições?
+cara, eu to realmente assustado com oq pode acontecer, se ess…</t>
+  </si>
+  <si>
+    <t>@mari2pilots1 @bsousa_a vai para o sophos sua viada</t>
+  </si>
+  <si>
+    <t>comprei um treco muito avulso aleatorio na supreme akaaka espero q venda essa porra, pq tem nem onde guardar kakkakakaka</t>
+  </si>
+  <si>
+    <t>@tessycollard false. aquafina is supreme</t>
+  </si>
+  <si>
+    <t>rt @yg_nose: bart supreme segui você</t>
+  </si>
+  <si>
+    <t>rt @mshinnidy: um perigo andar no busão mexendo no twitter só passa pornô bolado kkk</t>
+  </si>
+  <si>
+    <t>nível supreme agora #masterchefbr #masterchefprofissionais</t>
+  </si>
+  <si>
+    <t>rt @luscas: pq estar prevenida eh tudo https://t.co/kspwu1r8k4</t>
+  </si>
+  <si>
+    <t>rt @daylimns: ela é tipo supreme eu sou tipo converse alalalalalalalala</t>
+  </si>
+  <si>
+    <t>rt @yungshotaro: bart supreme = qi 1 trilhao</t>
+  </si>
+  <si>
+    <t>as pessoas não percebem que ngm é obrigado a querer nada</t>
+  </si>
+  <si>
+    <t>sinceramente sempre pensei qe a zoe fosse ser a supreme no ahs e nao a cordelia.</t>
+  </si>
+  <si>
+    <t>tem um cara aqui no aeroporto com camisa da supreme. vontade de perguntar quantos dól foi.</t>
+  </si>
+  <si>
+    <t>pediu pra vó tricotar esse logo supreme aí</t>
+  </si>
+  <si>
+    <t>@the_supreme_bey "to falando", @justiceirosujo, os militontos da esquerda são a escória da sociedade. as hipocrisias (beautiful people, paladinos da tolerância, mais amor por favor) sempre cairão por terra em casos como o massacre virtual contra a @anitta</t>
+  </si>
+  <si>
+    <t>enquanto eu estava criando meu usuário no hotmail vcs estavam nascendo ainda seus jovens supreme!</t>
+  </si>
+  <si>
+    <t>eu dos 10 aos 13 anod pedindo a deus todo dia pra me livrar da "maldição" q era ser gay... https://t.co/dvjvatuwbd</t>
+  </si>
+  <si>
+    <t>rt @asnodeburidan: @lu_rodrigo até porque a resposta certa é vermin supreme</t>
+  </si>
+  <si>
+    <t>encerramos o guestologia supreme, semana de imersão na vida de walt disney, com chave de ouro e convidados super especiais: mickey e minnie ✨
+.
+.
+em breve lançaremos o programa de 2019. fiquem ligados! 😉 vem... https://t.co/qrhsjzzkri</t>
+  </si>
+  <si>
+    <t>a nossa coleção supreme trouxe 3 novas cores de batons líquidos matte, que tem alta durabilidade e fixação: meghan, rose e bella. 💄 neutros e com toque de cintilância. ✨ qual o seu favorito? https://t.co/yzethuumf6</t>
+  </si>
+  <si>
+    <t>@paolacarosella q nota vc daria anjo? https://t.co/rszzz0b6dv</t>
+  </si>
+  <si>
+    <t>rt @pagodeanos90: gringos reagindo a cheia de manias do raça negra é o melhor video que vocês vão ver hoje https://t.co/yyjtsfuozp</t>
+  </si>
+  <si>
+    <t>urgente
+bart fica puto com a supreme e vira bart off white https://t.co/whxb7bdvpv</t>
+  </si>
+  <si>
+    <t>qual editor vc usou nessa ultima foto? q tem supreme escrito — coloquei o supreme escrito pela história do insta https://t.co/kvxivvltwi</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: lil peep manda mensagem do céu após o lançamento de sua música com o também falecido rapper xxxtentacion: "bart supreme"…</t>
+  </si>
+  <si>
+    <t>bart supreme agora é grife</t>
+  </si>
+  <si>
+    <t>rt @kenerwest: quando vc ta doidão e concentra pra não morrer https://t.co/b31lsb5uyc</t>
+  </si>
+  <si>
+    <t>rt @rafam_pacheco: o homem engravida a mulher, não segura o rojão, some e acha que é um herói só por pagar a pensão. a mulher cria sozinha…</t>
+  </si>
+  <si>
+    <t>ai meu goddddddd</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/5qacdvd4nq supreme x cdg drop i spent $10,000 *no joke*</t>
+  </si>
+  <si>
+    <t>roubou o vídeo e manipulou o áudio aeae
+"bandido bom é bandido morto"
+- bolsonaro, jair https://t.co/pdljbepsce</t>
+  </si>
+  <si>
+    <t>rihanna out dnvo
+ah vai tnc https://t.co/jj4gu1nwv6</t>
+  </si>
+  <si>
+    <t>rt @mshinnidy: vou tomar um açaí agora</t>
+  </si>
+  <si>
+    <t>@the_supreme_bey @beyfobico oi cê tem link do apk?</t>
+  </si>
+  <si>
+    <t>@penikmatmilo adidas/supreme kak hihi</t>
+  </si>
+  <si>
+    <t>@rico_fm camiseta ranço da supreme</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/lidpyww2mc coisas mais absurdas já lançadas pela supreme</t>
+  </si>
+  <si>
+    <t>rt @gianiucca: ninguem que nao seja modelo rapper ou sei la famoso fica com bom aquelas porra de roupa ridicula supreme balenciga bape só p…</t>
+  </si>
+  <si>
+    <t>vou ficar calado daqui pra frente... https://t.co/8iptcxxm8c</t>
+  </si>
+  <si>
+    <t>e dos supreme power também, mas só se for +16 com o selo max</t>
+  </si>
+  <si>
+    <t>dois gelo no meu bart supreme</t>
+  </si>
+  <si>
+    <t>com a supreme com tudo</t>
+  </si>
+  <si>
+    <t>que tarde olha</t>
+  </si>
+  <si>
+    <t>rt @byoncezada: agora entendi pq a beyoncé da sua vida nos shows de houston, olha que lindo todos fazendo a coreografia. https://t.co/ylgvo…</t>
+  </si>
+  <si>
+    <t>postei uma foto no insta e ganhei 2 curtidas 
+a
+u
+g
+e https://t.co/5xc6y26fv3</t>
+  </si>
+  <si>
+    <t>rt @falatumarku: sai daqui, vc usa camisa da supreme</t>
+  </si>
+  <si>
+    <t>bora pro cinema? uhuuuuuuuuu
+compre 2 produtos ou mais na loja e ganhe ingressos para assistir sansão 💪
+camisetas: supreme love branca e onde está o seu coração?
+https://t.co/gcsszjeivy</t>
+  </si>
+  <si>
+    <t>foda men n pode mais nem usar supreme como q vou ser real trapper https://t.co/qkqweoq8do</t>
+  </si>
+  <si>
+    <t>rt @ahsfxoficial: ahhhh!! primeira imagem oficial de jessica lange como constance no set de #ahsapocalypse https://t.co/jctlju15it</t>
+  </si>
+  <si>
+    <t>rt @shutterstockbr: @brunocruz olá bruno! nossa equipe de advogados ja estão sabendo e investigando o assunto. obrigado!</t>
+  </si>
+  <si>
+    <t>@semjobim é essa a discussão kkkkj eu acho horrível pior q camisa da supreme</t>
+  </si>
+  <si>
+    <t>@bachouralmeida mendigo com camisa da supreme</t>
+  </si>
+  <si>
+    <t>catwalk de homen é tão chato mano scrr</t>
+  </si>
+  <si>
+    <t>beyoncé acessível ta voltando gnt 
+amém https://t.co/lhxjfluhjw</t>
+  </si>
+  <si>
+    <t>rt @giuliamacedor: ela é tipo supreme eu sou tipo converse</t>
+  </si>
+  <si>
+    <t>sasuke supreme chegou mandando o chidori nos brancos que fazem rap https://t.co/6bv1fs7pe3</t>
+  </si>
+  <si>
+    <t>rt @conectadoscomj: satanás pensou que tinha tirado “tudo” de jó. mas o tudo de jó era deus.</t>
+  </si>
+  <si>
+    <t>nda a declarar...</t>
+  </si>
+  <si>
+    <t>sabias que
+o mito bart supreme
+não dispensa de fumar uns bons canhões?
+sim erva marijuana droga
+para enfrentar o real trap, o bart, que também pode ser chamado de sumeme, chupa fumo de uns bons tarolos para lidar com a pressão do brasileiro
+estamos a falar de 75 ch https://t.co/48z4bxwlk0</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/wixw2ink5e getúlio vargas e entra eurico gaspar dutra | constituição de 1946,</t>
+  </si>
+  <si>
+    <t>rt @beyhouse: tem gente q acha q dar comida e água pro cachorro é cuidar, isso é obrigação como dono! do que adianta pegar um animal se é p…</t>
+  </si>
+  <si>
+    <t>bart supreme vai fazer o trap ser coisa de mlk underground retardado de novo</t>
+  </si>
+  <si>
+    <t>galera falando que o cabo tá quebrado mas só vejo a galera usando camisa da gucci e supreme 🤔</t>
+  </si>
+  <si>
+    <t>eu tenho bart supreme no celular
+bart supreme
+supreme
+supreme
+supreme</t>
+  </si>
+  <si>
+    <t>@dulcmila você não fala assim do supreme!</t>
+  </si>
+  <si>
+    <t>nova campanha homer supreme https://t.co/qxod1m83t6</t>
+  </si>
+  <si>
+    <t>rt @vitoorvenancio: ninguém falou que ia ser fácil   mas puta que pariu em rapaziada</t>
+  </si>
+  <si>
+    <t>é só sair na rua pra ver uma pessoa a cada 3 minutos usando camiseta escrito supreme com estampas variadas</t>
+  </si>
+  <si>
+    <t>amigos supreme é mas de 1000$ blz kkkkkkkk</t>
+  </si>
+  <si>
+    <t>caralho essa camisa da supreme tem um tecido que parece que c tá de moletom bixo</t>
+  </si>
+  <si>
+    <t>rt @lgustavopuga: só queria ficar 6 horas em uma fila pra comprar uma peça da supreme por 500 dol</t>
+  </si>
+  <si>
+    <t>rt @disseputa: vontade de sentir alguém puxando meus cabelo e nem to falando de briga</t>
+  </si>
+  <si>
+    <t>acabei de reparar que a minha timeline é basicamente te de tweets e retweets da @laresexxual.... devo me preocupar?</t>
+  </si>
+  <si>
+    <t>rt @julilunkes: isso eh marca de injeção que toma quando pequeno seus burro https://t.co/h9qxeuzztj</t>
+  </si>
+  <si>
+    <t>@rafaelnewk camisa da supreme é um caso a parte. a parte do capeta taca fogo e sai rodando pq coragem......</t>
+  </si>
+  <si>
+    <t>@godxplan não eh.
+mas eu só chamo ele assim pq quem usa roupa da supreme pprra</t>
+  </si>
+  <si>
+    <t>rt @pitty: um dos autores do pl 6055/2013; projeto de lei que revoga o atendimento obrigatório e integral no sus para pessoas em situação d…</t>
+  </si>
+  <si>
+    <t>bart supreme vai a praia https://t.co/f9f9chbnx5</t>
+  </si>
+  <si>
+    <t>rt @arieigomes: ao vivo 😙🍻 https://t.co/4klsyd5ydt</t>
+  </si>
+  <si>
+    <t>rt @chamadepet: @bresolinyrn @hudi_melo bem mais meu kit da supreme scooby doo https://t.co/mpwyabrq1k</t>
+  </si>
+  <si>
+    <t>@yaakushi essa galera que endeusa madoka  2k18 ultra supreme lul</t>
+  </si>
+  <si>
+    <t>fala ai seus peita da supreme por 50 mangos</t>
+  </si>
+  <si>
+    <t>supreme arte designer 
+móveis planejados em até 12x sem juros 
+zap (21) 99192-9973 https://t.co/8lhq6zfxix</t>
+  </si>
+  <si>
+    <t>rt @xandeliborio: indo pra facul, vi uma mulher com uma camiseta estilo supreme só que tava escrito "vou ver e te aviso"</t>
+  </si>
+  <si>
+    <t>meu irmao td feliz que ganho uma peita da supreme kkkkkk tadinho</t>
+  </si>
+  <si>
+    <t>tão passando vergonha com essas camisa a cara da falsidade da supreme &amp;amp; gucci  😅😒</t>
+  </si>
+  <si>
+    <t>e vamos  pra mais um desafio da nossa carreira profissional. especialista em planejamento financeiro. #ibmec #portosegurovidaeprevidencia. #profissionaldeseguros https://t.co/mmtqb0d6os</t>
+  </si>
+  <si>
+    <t>rt @negatow: encontramos o supreme dando rolê com os irmãos dele
+lolololol https://t.co/ey6o8wblfv</t>
+  </si>
+  <si>
+    <t>to falando q ela trocou de público alvo https://t.co/tszirx1h1m</t>
+  </si>
+  <si>
+    <t>só queria ficar 6 horas em uma fila pra comprar uma peça da supreme por 500 dol</t>
+  </si>
+  <si>
+    <t>de uns tempos pra cá vejo um tanto de gente com um "supreme" estampado em blusa
+parece até propaganda pra marca de chocolate</t>
+  </si>
+  <si>
+    <t>@supreme_alves não pq sou influencer no tt</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/kxaewvdgf0 da supreme, entrei? a realidade das lojas hype em new york!</t>
+  </si>
+  <si>
+    <t>rt @arieigomes: boa noiteee 😏 https://t.co/ziylk1r0dm</t>
+  </si>
+  <si>
+    <t>não entendi ela é bi ? https://t.co/83qhephvsl</t>
+  </si>
+  <si>
+    <t>rt @crushdofutebol: rurik gislason é uma obra de arte 😱😍 https://t.co/tubawnmxhg</t>
+  </si>
+  <si>
+    <t>rt @falsaknowles: colocou o vídeo feito por fã no começo pra provar que ta de olho em tudo que a gente posta https://t.co/b9k4fjtto5</t>
+  </si>
+  <si>
+    <t>os cara é tipo supreme, eu sou tipo converse</t>
+  </si>
+  <si>
+    <t>rt @foreverbeey: então, não vou ser alice.  https://t.co/ryscifrm8w</t>
+  </si>
+  <si>
+    <t>lil peep manda mensagem do céu após o lançamento de sua música com o também falecido rapper xxxtentacion: "bart supreme" https://t.co/tem67woj3b</t>
+  </si>
+  <si>
+    <t>rt @privacidades: obrigado deus por mais um dia de vida.</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/p9u4chlfql é supreme patty?│está obscecado com a supreme e tatuou a marca na boca -</t>
+  </si>
+  <si>
+    <t>@bresolinyrn @hudi_melo bem mais meu kit da supreme scooby doo https://t.co/mpwyabrq1k</t>
+  </si>
+  <si>
+    <t>rt @cpiazzi: quando você está andando na calçada distraído e um cachorro late. https://t.co/uuhk1bkbox</t>
+  </si>
+  <si>
+    <t>não tenha preso em rabo supreme</t>
+  </si>
+  <si>
+    <t>insira aqui o que geralmente pede no mc donalds — chicken supreme porque é bom demais!!! https://t.co/8t5ljxejdv</t>
+  </si>
+  <si>
+    <t>rt @fiiipehalls: keria te pedi no ifod mas axo qi elis n emtrega x-premceza</t>
+  </si>
+  <si>
+    <t>de um lado a camila compondo: seu nariz é um charme baby
+do outro lado a lolo com: seu olhar é supreme baby https://t.co/uid8v0dfgb</t>
+  </si>
+  <si>
+    <t>rt @beysusbee: a emilia clarke fez uma tatuagem de três dragões no pulso chorei</t>
+  </si>
+  <si>
+    <t>bart supreme type rappers:
+fala de glock de lim e de roupa
+mano vc usava camiseta de anime e allstar até mês passado ok</t>
+  </si>
+  <si>
+    <t>@_flameboimatt o bagulho é fazer flow bart supreme</t>
+  </si>
+  <si>
+    <t>gente,eu estou em um fase na qual o facebook só serve pra destruir o meu dia,nmrl.....</t>
+  </si>
+  <si>
+    <t>amamos trabalhar neste projeto ♥️ obrigado drarthurrocha #repost drarthurrocha 
+・・・
+minha nova marca! gostaram? by @agenciabemtevi em espaço supreme https://t.co/zjnlb1tkwp</t>
+  </si>
+  <si>
+    <t>rt @abeylha: meu amor ela é professora de dança https://t.co/g2enex8ltv</t>
+  </si>
+  <si>
+    <t>rt @professordum: o senhor acha que se nao fosse a hermione o harry ja teria morrido uma centenas de vezes? — eu acho até que a hermione aj…</t>
+  </si>
+  <si>
+    <t>@symaww shawn bebou suprême</t>
+  </si>
+  <si>
+    <t>rt @wangcheeseking: queira ser amiga rica do youngjae pra chegar na casa dele com um bolo da supreme e docinhos da supreme e uns presente d…</t>
+  </si>
+  <si>
+    <t>rt @skamdaliza: síndrome de chandler bing eh vc usar humor e sarcasmo como mecanismo de defesa, não saber o que caralhos tá fazendo com sua…</t>
+  </si>
+  <si>
+    <t>@rakinlol com 3k vc compra um anel da supreme e fica felizão poh</t>
+  </si>
+  <si>
+    <t>é um direito nosso não te apoiar na sua carreira daqui pra frente tbm. https://t.co/vggh5aqprm</t>
+  </si>
+  <si>
+    <t>@amandazugitto @kcclouie @bolsonarogays @starrtrick @bbuckyybarnes @anitta eu to rindo da audácia de eleitor do bolsonaro querendo falar sobre homofobia kajsskjskskdkdkskdkdkkkkkkkkk
+augeeeee https://t.co/3ylp3s7dow</t>
+  </si>
+  <si>
+    <t>se ela não queria se posicionar contra
+pensasse antes de levantar a bandeira lgbt
+q ficasse quieta no cantinho dela desde o começo https://t.co/7ek50oopih</t>
+  </si>
+  <si>
+    <t>nada pior que a “supere” no lugar de “supreme” https://t.co/93vcigex5a</t>
+  </si>
+  <si>
+    <t>@againbruno tem da supreme também</t>
+  </si>
+  <si>
+    <t>rt @valescaoficial: elenão https://t.co/zzcc5ohtye</t>
+  </si>
+  <si>
+    <t>@the_supreme_bey eu sei disso, amor.
+e ta tudo bem</t>
+  </si>
+  <si>
+    <t>fds 2 modelos da mesma coleção da supreme eu fiquei com a mais feia ,tipo o meu símbolo da supreme não é bordado :(</t>
+  </si>
+  <si>
+    <t>@apayes94 supreme blinentele(sp?)</t>
+  </si>
+  <si>
+    <t>neymar, neymar, neymar supreme e gucci tipo neymar</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: sabias que
+o mito bart supreme
+não dispensa de fumar uns bons canhões?
+sim erva marijuana droga
+para enfrentar o real t…</t>
+  </si>
+  <si>
+    <t>@simonjjacobson @philosophymttrs or on protagoras.</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: atenção
+bart supreme morre após tentar chupar bart supreme https://t.co/v3mxbzkcvo</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: - mamãe, pq o nome do meu irmãozinho é bart supreme
+- pq quando seu pai era menor gostava muito de bart supreme
+- então p…</t>
+  </si>
+  <si>
+    <t>ela não me convence pq é tipo supreme e eu sou meio converse</t>
+  </si>
+  <si>
+    <t>@usuratonkachiuc ah ta entendi 
+dsculpa eu
+sou assumido só pra mim msmo anjo...</t>
+  </si>
+  <si>
+    <t>rt @lannashit: na cidade de vcs tbm tem as webcelebridades locais, q consiste em adolescentes q tem muitos like, geralmente é amigo de todo…</t>
+  </si>
+  <si>
+    <t>@bolsonarosp vergonha nacional pqp https://t.co/kvogea4und</t>
+  </si>
+  <si>
+    <t>tem um carro aqui em lajeado que é cheio do adesivo da supreme lojaisjaidjsidjsisjdis cada um que aparece</t>
+  </si>
+  <si>
+    <t>@dropssupreme @iuridgaf potezao sabes q esses sao todos fake o unico oficial da supreme é o red box logo kkk</t>
+  </si>
+  <si>
+    <t>chegou hoje lindas estampas na base supreme com mega preço.
+83%poliamida e 17%elastano.</t>
+  </si>
+  <si>
+    <t>tema: vô dela de gucci
+menorzin d supreme: sidokinha</t>
+  </si>
+  <si>
+    <t>sou estiloso até de camiseta branca 
+nah não é supreme eu uso sem estampa</t>
+  </si>
+  <si>
+    <t>rt @virtualtripss: se fizerem uma lista com as pessoas mais feias de tucuruí e eu não for o primeiro, eu vou ficar muito puto</t>
+  </si>
+  <si>
+    <t>reclama de gente q compra roupa da supreme mas compra skin em jogo online</t>
+  </si>
+  <si>
+    <t>rt @twerkyago: felizmente minha fave que nem mora no brasil se posicionou https://t.co/tvfe0vtvmv</t>
+  </si>
+  <si>
+    <t>o brasileiro acabando com a supreme, vcs são uns lixo</t>
+  </si>
+  <si>
+    <t>bart supreme segui você</t>
+  </si>
+  <si>
+    <t>bart supreme é coisa do passado, agora a moda é bart bape https://t.co/1cngc1ddyw</t>
+  </si>
+  <si>
+    <t>@fernwndinha supreme lv ta 89,90 mas pra vc é tlinta leais</t>
+  </si>
+  <si>
+    <t>shoulder bag da supreme....
+tô te paquerando</t>
+  </si>
+  <si>
+    <t>ninguem que nao seja modelo rapper ou sei la famoso fica com bom aquelas porra de roupa ridicula supreme balenciga bape só parece adolescente ridiculo msm</t>
+  </si>
+  <si>
+    <t>dólar: r$ 4,12
+iphone x: r$ 5000,00
+cuequinha supreme: r$ 90,00
+trufas m32: r$ 2,00 
+você que sabe</t>
+  </si>
+  <si>
+    <t>queria ter comprado essa tshirt da supreme qnd saiu but sold out too fast :( https://t.co/2ve2wmtctx</t>
+  </si>
+  <si>
+    <t>me rasga garoto... https://t.co/isjidheez6</t>
+  </si>
+  <si>
+    <t>@bibisouzzz compra uma camiseta da supreme</t>
+  </si>
+  <si>
+    <t>quando eu ficar milionário vou fazer uma casa com tijolos da supreme</t>
+  </si>
+  <si>
+    <t>sabias que
+o mito bart supreme
+não dispensa de tomar um bom lean??
+sim purple drank sprite droga
+para enfrentar o real trap, o bart, que também pode ser chamado de sumeme, chupa gole de umas boas codeinas para lidar com a pressão da cena
+estamos a falar de 75 ch https://t.co/wuh3bkbniw</t>
+  </si>
+  <si>
+    <t>só queria pegar um cordão da versace e o novo drop da supreme, aquela camisa tá meccccc dmsss</t>
+  </si>
+  <si>
+    <t>to dando aula de screenshare rapaziada, quer comprar, além de receber as aulas vai receber meu pack com todas meus metodos e minhas strings privadas.
+quem estiver interessado me adiciona no discord:
+supreme#3549  ( obs: eu dava aula no curso da gcdetector e fui gc do zenix)</t>
+  </si>
+  <si>
+    <t>rt @mari2pilots1: a maldição das gravidez tá lançada aqui em tucuruí city tô até com medo de beijar agora 
+afasta de mim esse mal</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: quem nasceu pra ser adolescente andando no shopping com camisa da 1kilo nunca vai ser  bart supreme</t>
+  </si>
+  <si>
+    <t>rt @rachelsherazade: sou mulher. crio dois filhos sozinha. fui criada por minha mãe e minha avó. não. não somos criminosas.
+somos heroínas!…</t>
+  </si>
+  <si>
+    <t>querem patrocinio da supreme eu da skol</t>
+  </si>
+  <si>
+    <t>gênesis do rap bem aqui
+https://t.co/cceq6nklwe</t>
+  </si>
+  <si>
+    <t>eu fico pensando no nível de alienação de quem vota no hitler 2.0 https://t.co/uiip4avhmx</t>
+  </si>
+  <si>
+    <t>já estou querendo https://t.co/xqao3ducgy</t>
+  </si>
+  <si>
+    <t>@_marianac manda bordar um supreme ai e ja era</t>
+  </si>
+  <si>
+    <t>@99sbxtch aí não aguento mais mas a piroca supreme quem sabe sabe</t>
+  </si>
+  <si>
+    <t>rt @rachelsherazade: @samuel380pilot pare de se iludir e tentar encobrir todas as atrocidades do seu candidato.
+faça um exame de consciênci…</t>
+  </si>
+  <si>
+    <t>rt @ahlupin: e se em harry potter eles chamassem o voldemort igual a gente chama o bozonabo???
+harry: vol... quer dizer, o senhor-sabe-que…</t>
+  </si>
+  <si>
+    <t>bart supreme sabe onde fica o clitoris</t>
+  </si>
+  <si>
+    <t>bart supreme vai aumentar o preço do cachê do raffa moreira e diminuir o do matuê</t>
+  </si>
+  <si>
+    <t>rt @salebasi: passei uns dias fora de casa e minha planta murchou. dei bastante água pra ela e fiz um time lapse ❤️ https://t.co/bkqmcu4873</t>
+  </si>
+  <si>
+    <t>ela msmo acabou com a carreira... https://t.co/mur6wxisxr</t>
+  </si>
+  <si>
+    <t>@jouborges https://t.co/uijvevwxjs rinu pra num chora</t>
+  </si>
+  <si>
+    <t>@derpsson pia eu valorizo mt esses momentos smc, mt engraçado a galera n curte reparar nisso, aqui em curitiba tem varios com boné da supreme pia</t>
+  </si>
+  <si>
+    <t>rt @agent_j4722: bolsominions dizendo que a rita lee quer aparecer. rita lee. carreira consolidada. mais de 50 anos de carreira. 55 milhões…</t>
+  </si>
+  <si>
+    <t>rt @beyhivecombr: se vcs me acham alice, imagina os 40 mil que confirmaram presença na otrii no maracanã https://t.co/dfjz5jmiqc</t>
+  </si>
+  <si>
+    <t>não sei se compro um boné da supreme ou se compro um escrito fe</t>
+  </si>
+  <si>
+    <t>já conhece todos os lançamentos da coleção supreme? 😍 são muitas novidades para aperfeiçoar ainda mais as suas produções. 💙 confira em um dos pontos de venda ou na loja virtual! #catharinehill #coleçaosupreme #makeup https://t.co/jvlpojfhyz</t>
+  </si>
+  <si>
+    <t>dá prá compra uma camisa da supreme</t>
+  </si>
+  <si>
+    <t>queria um tijolo da supreme 😍😍😍 acho tão topppp 😎😎😎😎😎😎😎😎</t>
+  </si>
+  <si>
+    <t>rt @deusvirgem: bart supreme type rappers:
+fala de glock de lim e de roupa
+mano vc usava camiseta de anime e allstar até mês passado ok</t>
+  </si>
+  <si>
+    <t>bart supreme odeia brancos</t>
+  </si>
+  <si>
+    <t>rt @akatsuc: mulheres com bolsonaro
+judeus com hitler</t>
+  </si>
+  <si>
+    <t>rt @mrveldowney: chocadissima que a brie larson e a fernanda gentil foram separadas na maternidade https://t.co/fi13zu5wdc</t>
+  </si>
+  <si>
+    <t>sem ranço e sem supreme, acho que estou sozinha neste mundo. https://t.co/bi1s5pyzyu</t>
+  </si>
+  <si>
+    <t>pra completar aquelas brusinha da supreme lindissima</t>
+  </si>
+  <si>
+    <t>nossa supreme influencer fica caladinha, né? é a besta</t>
+  </si>
+  <si>
+    <t>chegou o e-mail de confirmação do try out do supreme e até hj não decidi se devo</t>
+  </si>
+  <si>
+    <t>@calabocagio ainda bem então pq ele tava pedindo camiseta estili supreme e ranço. até estranhei</t>
+  </si>
+  <si>
+    <t>rt @joliecult: angelina jolie pistola em "o procurado" https://t.co/4b7evjulxm</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/buauybuakl delícia supreme, coloreti e cajuína: é vegano ou não é?</t>
+  </si>
+  <si>
+    <t>@isaquesathler @countonvic kkkkkkkkkkkkk a cara dela, aposto que tem uma imitação igual tem da blusa supreme</t>
+  </si>
+  <si>
+    <t>@freeblowjob supreme é apelido do cara?
+se for eu já entendi pq</t>
+  </si>
+  <si>
+    <t>ja trabalhei na vish midia e me demiti pq eles não eram a favor do bart supreme</t>
+  </si>
+  <si>
+    <t>meu chefe ainda não chegou com meu temaki supreme de camarão que pedi pra ele trazer</t>
+  </si>
+  <si>
+    <t>onde vc compra supreme ? — ?? https://t.co/4fg4fsaixy</t>
+  </si>
+  <si>
+    <t>@nunessx2 @novetti2 1 e meio da supreme já</t>
+  </si>
+  <si>
+    <t>rt @rnavybrazil: a rihanna participou da marcha das mulheres, em washington, nos estados unidos, na frente da trump tower. a marcha lutava…</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/2dkbarvxcv visiting the fake supreme store in barcelona</t>
+  </si>
+  <si>
+    <t>rt @yonceforyou: eu não to bem eu não to bem 
+eu não to bem eu não to bem
+eu não to bem eu não to bem 
+eu não to bem eu não to bem 
+eu não…</t>
+  </si>
+  <si>
+    <t>a logo da colgate parece a logo da supreme</t>
+  </si>
+  <si>
+    <t>rt @trapmentales: urgente
+bart fica puto com a supreme e vira bart off white https://t.co/whxb7bdvpv</t>
+  </si>
+  <si>
+    <t>quando uma supreme começa a morrer é porque outra está subindo ao auge https://t.co/pxovqinht6</t>
+  </si>
+  <si>
+    <t>bob’s lança sanduíche supreme artesanal | https://t.co/bm5jb78la3 https://t.co/dx0fzeakp3</t>
+  </si>
+  <si>
+    <t>canivete da supreme kkkkkkkkkkkkk  voces são bem doentes mesmo namoral</t>
+  </si>
+  <si>
+    <t>hoje eu vi o @ supreme, como tava com saudade dele aff</t>
+  </si>
+  <si>
+    <t>- mamãe, pq o nome do meu irmãozinho é bart supreme
+- pq quando seu pai era menor gostava muito de bart supreme
+- então pq eu me chamo bart supreme?
+- bart supreme</t>
+  </si>
+  <si>
+    <t>devo ser a única que não gosta da supreme</t>
+  </si>
+  <si>
+    <t>rt @vicentinamandy: eu estou sempre cansada, mas nunca de você.</t>
+  </si>
+  <si>
+    <t>@helenaa_santoos esquecemos da “supere” imitando a supreme</t>
+  </si>
+  <si>
+    <t>e- meu ex crush supreme💔</t>
+  </si>
+  <si>
+    <t>rt @bkaccess: relembre quando a beyoncé, mesmo estando grávida de gêmeos, não se calou e resolveu subir aos palcos em um show gratuito, par…</t>
+  </si>
+  <si>
+    <t>bart supreme vai tirar o bob shmurda da cadeia</t>
+  </si>
+  <si>
+    <t>@jnflesch música pop ( popular) virou uma marca. 
+virou uma supreme com uma batida envolvente onde todos desejam mostram que tem...ops, que foi.</t>
+  </si>
+  <si>
+    <t>rt @olhaasena: quando o oprimido começa a compactuar com o opressor é bem assim. #mulherescontrabolsonaro https://t.co/vvnhj0xpr1</t>
+  </si>
+  <si>
+    <t>curta bart supreme tb</t>
+  </si>
+  <si>
+    <t>rt @cpiazzi: quando jesus nasceu e viveu a judéia era governada pelo império romano.
+jesus só andava com pobre, os judeus ricos não gostav…</t>
+  </si>
+  <si>
+    <t>rt @liamvenenosa: essa fã conhecendo o harry é a melhor reação https://t.co/kypk2fe3p7</t>
+  </si>
+  <si>
+    <t>rt @byloui: @bolsonarosp comprou o vídeo de banco de imagem safado desonesto https://t.co/lnr58rlzoa</t>
+  </si>
+  <si>
+    <t>rt @greysdaabad: eu sou a pessoa mais triste do mundo https://t.co/oydmvxh0rh</t>
+  </si>
+  <si>
+    <t>aprendam como é uma sabatina polêmica para justice da us supreme court... https://t.co/j4okcfsl3o</t>
+  </si>
+  <si>
+    <t>ofereçam-me lá um zippo da supreme</t>
+  </si>
+  <si>
+    <t>foda se não acredito hoje finalmente fui aí site da supreme para comprar a merda da mala finalmente quando vi que tava esgotado tipo destruíram me completamente</t>
+  </si>
+  <si>
+    <t>mas assim, falando sério aqui, essa menina é a crush supreme da minha vida, juro, maravilhosaaa é pouco perto do que ela é, por isso que nem me passa na cabeça ela querer algo comigo um dia.. kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/7cdd2t0eql @ishie_brand queens review supreme court tsmadison funky dineva ross</t>
+  </si>
+  <si>
+    <t>o cara vem com uma camisa da supreme reclamar do preco da banana</t>
+  </si>
+  <si>
+    <t>me veja duas por favor😂😂😂
+tmnc supreme😂😂 https://t.co/thqsvjqw5j</t>
+  </si>
+  <si>
+    <t>rt @mahsaloto: mulher pobre, periférica, assalariada, que acorda 4:30 da manhã pra pegar diversas conduções até chegar em seu trabalho, cri…</t>
+  </si>
+  <si>
+    <t>gastar todo meu dinheiro pra comprar um contador de nota da supreme</t>
+  </si>
+  <si>
+    <t>mano andando de skate com uma calça da supreme no novo vídeo da new balance, skill em.</t>
+  </si>
+  <si>
+    <t>rt @maniacsmm: a fazenda evaristo não será mais a mesma! 
+esta banda dispensa qualquer apresentação... murder rape!🤘👿
+ouça o clássico "ce…</t>
+  </si>
+  <si>
+    <t>não é/foi uma decisão minha não juuh... https://t.co/jx98w5vq0n</t>
+  </si>
+  <si>
+    <t>ih ala ta falando da beyoncé https://t.co/uslnacjvwt</t>
+  </si>
+  <si>
+    <t>o cara com 300 de ping dando mais bala que eagle e supreme... bem normal</t>
+  </si>
+  <si>
+    <t>@beivyz é ironia anjo kajskskskskskdkk https://t.co/shdybabgnw</t>
+  </si>
+  <si>
+    <t>a prova de que uma camiseta da supreme não vale tudo isso é que uma cópia idêntica é vendida na rua a 20 reais.</t>
+  </si>
+  <si>
+    <t>atenção
+bart supreme morre após tentar chupar bart supreme https://t.co/v3mxbzkcvo</t>
+  </si>
+  <si>
+    <t>complicado... em villas supreme hotel https://t.co/uvxpgxzrvz</t>
+  </si>
+  <si>
+    <t>deixa vomigo
+toca po bart supreme https://t.co/dqnyhzohsg</t>
+  </si>
+  <si>
+    <t>sai daqui, vc usa camisa da supreme</t>
+  </si>
+  <si>
+    <t>@mari2pilots1 @bsousa_a mas olha</t>
+  </si>
+  <si>
+    <t>rt @filiperausch: pq humanos confundem o mar com a lixeira? https://t.co/vfyvdvmv4j</t>
+  </si>
+  <si>
+    <t>@jrothenbergtv boii</t>
+  </si>
+  <si>
+    <t>@usuratonkachiuc ser gay nunca é uma decisão de ninguém
+vc nasce assim bb
+e depois se descobre</t>
+  </si>
+  <si>
+    <t>rt @iahgos: caralho mas o brasil num fica em primeiro em nada é foda esse país https://t.co/sf34u5cjaq</t>
+  </si>
+  <si>
+    <t>daqui a pouco vai existir piso da supreme com a louis vuitton, gucci, channel, dolce gabbana, adidas, nike, undearmor, asics https://t.co/ic2jer8pij</t>
+  </si>
+  <si>
+    <t>já dizia konai:
+esses cara é tipo supreme
+eu sou tipo converse</t>
+  </si>
+  <si>
+    <t>lowest ask: $550 jordan 5 retro supreme desert camo sz. 7.5 https://t.co/adsqr6ttmd #airjordan https://t.co/wf82gqpxo9</t>
+  </si>
+  <si>
+    <t>rt @americanhsbr: quando o fim do mundo começa e o espírito da açougueira te possui. #ahsapocalypse https://t.co/njkluc6eo8</t>
+  </si>
+  <si>
+    <t>@noteabner kkkkkkkkkkkkkkkkkkkkkk essa linha é bape colab com supreme, só pode</t>
+  </si>
+  <si>
+    <t>thrasher abriu uma loja to so visualizando as bloguera entrando na loja achando q eh supreme kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @bey_lacra: me apaixono todos os dias por essa mulher https://t.co/mwb117ih0h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1824,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -998,7 +1874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1006,6 +1882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +2200,7 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +2211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +2249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1401,8 +2278,9 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4052,7 +4930,2906 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>264</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>268</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>269</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>270</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>271</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>272</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>273</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>274</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>275</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>276</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>277</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>278</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>275</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>279</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>275</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>280</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>281</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>282</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>283</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>284</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>286</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>287</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>288</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>275</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>290</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>291</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>292</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>293</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>294</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>295</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>296</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>299</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>300</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>301</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>302</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>303</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>304</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>305</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>306</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>307</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>308</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>309</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>310</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>312</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>314</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>315</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>316</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>317</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>318</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>319</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>321</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>322</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>323</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>275</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>324</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>326</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>327</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>328</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>329</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>312</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>331</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>332</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>333</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>275</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>334</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>335</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>336</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>337</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>338</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>339</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>340</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>341</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>343</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>276</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>275</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>275</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>344</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>345</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>275</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>346</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>275</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>347</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>275</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>275</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>348</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>350</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>351</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>352</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>353</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>355</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>356</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>358</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>359</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>360</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>361</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>362</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>276</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>363</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>364</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>365</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>366</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>367</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>368</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>369</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>370</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>276</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>371</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>275</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>372</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>373</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>375</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>377</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>378</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>275</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>380</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>381</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>382</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>383</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>384</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>385</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>386</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>389</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>390</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>391</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>393</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>394</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>395</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>397</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>400</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>402</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>403</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>404</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>275</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>405</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>92</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>105</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>409</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>410</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>411</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>275</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>412</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>413</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>414</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>415</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>417</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>419</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>275</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>420</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>421</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>422</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>424</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>427</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>275</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>275</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>429</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>275</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>291</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>431</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>432</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>275</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>433</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>434</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>437</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>438</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>439</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>275</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>440</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>275</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>441</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>442</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>443</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>444</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>445</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>446</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>447</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>448</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>450</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>452</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>453</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>454</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>455</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>456</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>275</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>457</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>458</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>459</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>304</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>460</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>462</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>275</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>463</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>464</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>465</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>466</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>467</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>469</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>275</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="C541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>471</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>472</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>473</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>474</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>476</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>477</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>275</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>383</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>478</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>479</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>480</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>275</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>481</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>483</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>275</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>484</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>486</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>487</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>488</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>489</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>490</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>491</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>492</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>493</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>291</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>494</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>496</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>497</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>275</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>498</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>500</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>501</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>502</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>275</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>503</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>504</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>506</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>508</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>509</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>510</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>511</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>513</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>312</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>514</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="C595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>516</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>517</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>518</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>519</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>520</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>275</v>
+      </c>
+      <c r="B601">
+        <v>1</v>
+      </c>
+      <c r="C601">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>